--- a/MEDIA/_2801 __會計科目餘額明細.xlsx
+++ b/MEDIA/_2801 __會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_2801 __2020-10-01~2020-10-23)</t>
+          <t>森邦(股)會計科目餘額明細(_2801 __2020-07-01~2020-09-30)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14400000</v>
+        <v>13450000</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20200706</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>頂-虎尾林森-鍾葦蓁暫收6萬+保證金5萬          </t>
+          <t>沖#47910/49660-竹北成功-卓勝麒保證金(原中正東</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F4" t="n">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14450000</v>
+        <v>13400000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109528</t>
+          <t>105886</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200713</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖#40734-堤諾台北光復北-林世偉保證金20萬     </t>
+          <t>暫收-中壢三光-徐任賢/徐金發 保證金5萬         </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>139419</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G5" t="n">
-        <v>14310581</v>
+        <v>13450000</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109594</t>
+          <t>106224</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200714</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>扣貨款60581=實退還139419            </t>
+          <t>10906台北展NO.65-陳永淯/吳楚雲/梁詠晴-竹北嘉興</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G6" t="n">
-        <v>14310581</v>
+        <v>13500000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109594</t>
+          <t>106299</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200715</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沖#29122-堤諾內湖家樂福-林滿足-保證金20萬    </t>
+          <t>沖20180731#78045-土庫新建-黃新雅保證金5萬 </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>168100</v>
+        <v>50000</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>14142481</v>
+        <v>13450000</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109597</t>
+          <t>106300</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200716</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>扣貨款31900=實退還168100            </t>
+          <t> 暫收-戴勝儒-土城永寧 保證金5萬            </t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G8" t="n">
-        <v>14142481</v>
+        <v>13500000</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109597</t>
+          <t>106426</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200720</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T光復北-用保證金沖貨款                  </t>
+          <t>10906台北展NO.13-秦月泙-板橋三民秦承平保證金5萬</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G9" t="n">
-        <v>14081900</v>
+        <v>13550000</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109593</t>
+          <t>106546</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200722</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10908高雄展NO.33-黃曉菁 -花蓮中正 保證金5萬 </t>
+          <t>10903台北展NO46胡雅雯-平鎮廣泰-保證金5萬    </t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -698,11 +698,11 @@
         <v>-50000</v>
       </c>
       <c r="G10" t="n">
-        <v>14131900</v>
+        <v>13600000</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109656</t>
+          <t>106651</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200727</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -729,21 +729,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>沖#91190-新店北新-施香君退保證金5萬        </t>
+          <t>暫收-彰化旭光-吳俊育(李君怡匯入)保證金5萬       </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G11" t="n">
-        <v>14081900</v>
+        <v>13650000</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109590</t>
+          <t>106827</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200728</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>暫收-蘆竹鴻佰科技-林欣杰-保證金5萬           </t>
+          <t>暫收-楊梅校前-謝承宏 保證金5萬             </t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -780,11 +780,11 @@
         <v>-50000</v>
       </c>
       <c r="G12" t="n">
-        <v>14131900</v>
+        <v>13700000</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109656</t>
+          <t>106868</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200728</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -811,21 +811,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T內湖用保證金沖貨款                    </t>
+          <t>10906月台北展NO80 李佳蓉 桃園大興 保證金5萬  </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31900</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G13" t="n">
-        <v>14100000</v>
+        <v>13750000</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109596</t>
+          <t>106868</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20200729</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -852,21 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>沖#51900-退深坑北新-陳偉峰-保證金5萬       </t>
+          <t>10906月台北展NO113賴姿妤-桃園國強 保證金5萬  </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G14" t="n">
-        <v>14050000</v>
+        <v>13800000</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109637</t>
+          <t>106904</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20200731</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -893,21 +893,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>沖#102256-蘆洲仁愛-陳品璇退保證金5萬       </t>
+          <t>暫收-樹林保安-趙正潭 保證金5萬             </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G15" t="n">
-        <v>14000000</v>
+        <v>13850000</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109961</t>
+          <t>106971</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -919,7 +919,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201023</t>
+          <t>20200731</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -934,21 +934,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>沖#75593-虎尾林森-張正東(合約人)李淑娟-保證金5萬</t>
+          <t>10906台北展NO30吳雅華-頂竹北民權 保證金5萬   </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G16" t="n">
-        <v>13950000</v>
+        <v>13900000</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110449</t>
+          <t>106971</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201023</t>
+          <t>20200731</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -975,24 +975,1254 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>沖#91943-楊梅梅獅-陳芳瑩-保證金5萬        </t>
+          <t>10906台北展NO85陳芸伯-頭份光華 保證金5萬    </t>
         </is>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13950000</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>106971</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20200803</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10906台北展NO.61-秦嫚君-大里大智 保證金5萬  </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>107026</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20200804</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大甲日南店 張雅惠-保證金5萬               </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14050000</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>107102</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20200805</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沖#37763-馬祖南竿-林素婉保證金5萬         </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>50000</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>107041</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20200805</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沖#100235-竹北民權-羅文妃保證金5萬        </t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>13950000</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>107041</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20200807</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沖#5155-宜蘭復興-劉雅文保證金5萬          </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>13900000</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>110449</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>107119</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20200807</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10906台北展NO2賴景亭/陳郡甫-頭份昌榮 保證金5萬 </t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>13950000</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>107213</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20200807</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>頂-大溪仁中-黃聖雯 保證金5萬元             </t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>107213</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20200810</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沖#75593-退神岡昌平-林明澤-保證金5萬       </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13950000</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>107239</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20200810</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沖#75628-退蘆洲三民-莊淑如保証金-5萬       </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13900000</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>107206</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20200811</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>暫收-林宏羿 北市景福 保證金5萬             </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>13950000</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>107311</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20200813</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10906台北展NO26王姵雯-樹林站前 保證金5萬元   </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>107411</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20200813</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>暫收-花蓮東華-林弘銘 保證金5萬元            </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14050000</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>107411</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20200813</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>暫收-永和永利-吳珮瑜 保證金5萬元            </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14100000</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>107430</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20200819</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>暫收-北市成都-王岡元 保證金5萬視            </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14150000</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>107709</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20200824</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沖#95370-大溪仁中彭鳳英-結束營業退保證金      </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14100000</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>107662</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20200825</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沖#41375-楠梓高大-朱雅雲退保證金5萬        </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>14050000</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>107844</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20200827</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10906台北展NO.1-曾麗卿-太平旱溪西保證金5萬   </t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>14100000</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>108095</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20200831</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沖#66194-台中晨津-黃順煌退保證金5萬        </t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>14050000</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>108158</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20200901</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10908高雄展NO.9-黃彥蓁-台南水交社 保證金5萬元 </t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>14100000</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>108267</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20200901</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>暫收-賀孝倫-堤諾長庚-保證金20萬            </t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>14300000</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>108267</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20200901</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10906台北展NO.41-藍義淵-中壢後寮 保證金5萬  </t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>14350000</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>108267</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20200904</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沖#91128-新店中正-潘明輝退保證金5萬        </t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>14300000</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>108350</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20200904</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>頂-三重三民-蔣奇勳 保證金5萬元             </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>14350000</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>108389</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20200910</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10906台北展NO.117-蕭惠文-北市光復 保證金5萬 </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>14400000</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>108615</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20200911</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>沖FG10311170008-台南西門張月嬌保證金5萬   </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>14350000</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>108591</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20200915</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>沖#108267-黃彥蓁-台南水社交-保證金5萬      </t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>14300000</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>108692</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20200915</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>頂-北市立農-楊宗憲(士商2店)保證金5萬元        </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>14350000</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>108778</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20200925</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>沖#91718-退北市立農-林家鈴保證金5萬        </t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14300000</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>109245</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20200929</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10906台北展NO90-邱芸芸 -三重正義南 保證金5萬 </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>14350000</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>109417</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20200929</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2801  .        </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>頂-楊梅梅獅-羅秀娣 保證金5萬              </t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>14400000</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>109417</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
